--- a/num_atomos/crn512.xlsx
+++ b/num_atomos/crn512.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>CRN</t>
   </si>
@@ -116,6 +116,15 @@
   </si>
   <si>
     <t>crn_00024</t>
+  </si>
+  <si>
+    <t>crn_00025</t>
+  </si>
+  <si>
+    <t>crn_00026</t>
+  </si>
+  <si>
+    <t>crn_00027</t>
   </si>
 </sst>
 </file>
@@ -480,7 +489,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -520,28 +529,28 @@
         <v>9</v>
       </c>
       <c r="B2" s="2">
-        <v>3511.322838</v>
+        <v>3508.135745</v>
       </c>
       <c r="C2" s="2">
-        <v>251.520214</v>
+        <v>234.672742</v>
       </c>
       <c r="D2" s="2">
-        <v>0.095141</v>
+        <v>0.109738</v>
       </c>
       <c r="E2" s="2">
-        <v>2.80291</v>
+        <v>3.344617</v>
       </c>
       <c r="F2" s="2">
-        <v>51.171875</v>
+        <v>52.34375</v>
       </c>
       <c r="G2" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H2" s="2">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="I2" s="2">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -549,28 +558,28 @@
         <v>10</v>
       </c>
       <c r="B3" s="2">
-        <v>3447.262187</v>
+        <v>3501.974888</v>
       </c>
       <c r="C3" s="2">
-        <v>230.83418</v>
+        <v>241.188986</v>
       </c>
       <c r="D3" s="2">
-        <v>0.404538</v>
+        <v>0.155371</v>
       </c>
       <c r="E3" s="2">
-        <v>4.523543</v>
+        <v>3.357206</v>
       </c>
       <c r="F3" s="2">
-        <v>51.953125</v>
+        <v>52.34375</v>
       </c>
       <c r="G3" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H3" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="I3" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -578,28 +587,28 @@
         <v>11</v>
       </c>
       <c r="B4" s="2">
-        <v>3486.086988</v>
+        <v>3459.119351</v>
       </c>
       <c r="C4" s="2">
-        <v>252.941939</v>
+        <v>260.416593</v>
       </c>
       <c r="D4" s="2">
-        <v>0.372933</v>
+        <v>0.163422</v>
       </c>
       <c r="E4" s="2">
-        <v>5.143455</v>
+        <v>4.167658</v>
       </c>
       <c r="F4" s="2">
-        <v>48.046875</v>
+        <v>47.265625</v>
       </c>
       <c r="G4" s="2">
         <v>7</v>
       </c>
       <c r="H4" s="2">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="I4" s="2">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -607,28 +616,28 @@
         <v>12</v>
       </c>
       <c r="B5" s="2">
-        <v>3465.367255</v>
+        <v>3502.943533</v>
       </c>
       <c r="C5" s="2">
-        <v>257.472513</v>
+        <v>244.732097</v>
       </c>
       <c r="D5" s="2">
-        <v>-0.202107</v>
+        <v>0.414841</v>
       </c>
       <c r="E5" s="2">
-        <v>3.042715</v>
+        <v>4.176454</v>
       </c>
       <c r="F5" s="2">
-        <v>52.734375</v>
+        <v>50</v>
       </c>
       <c r="G5" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H5" s="2">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="I5" s="2">
-        <v>237</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -636,28 +645,28 @@
         <v>13</v>
       </c>
       <c r="B6" s="2">
-        <v>3470.728585</v>
+        <v>3464.268178</v>
       </c>
       <c r="C6" s="2">
-        <v>254.99124</v>
+        <v>229.858607</v>
       </c>
       <c r="D6" s="2">
-        <v>-0.142659</v>
+        <v>0.158334</v>
       </c>
       <c r="E6" s="2">
-        <v>3.34073</v>
+        <v>3.497626</v>
       </c>
       <c r="F6" s="2">
-        <v>45.3125</v>
+        <v>52.734375</v>
       </c>
       <c r="G6" s="2">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="H6" s="2">
-        <v>232</v>
+        <v>270</v>
       </c>
       <c r="I6" s="2">
-        <v>275</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -665,28 +674,28 @@
         <v>14</v>
       </c>
       <c r="B7" s="2">
-        <v>3446.919898</v>
+        <v>3460.972341</v>
       </c>
       <c r="C7" s="2">
-        <v>248.354397</v>
+        <v>247.056466</v>
       </c>
       <c r="D7" s="2">
-        <v>0.308963</v>
+        <v>0.141049</v>
       </c>
       <c r="E7" s="2">
-        <v>5.008945</v>
+        <v>4.322701</v>
       </c>
       <c r="F7" s="2">
-        <v>53.125</v>
+        <v>52.34375</v>
       </c>
       <c r="G7" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H7" s="2">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="I7" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -694,28 +703,28 @@
         <v>15</v>
       </c>
       <c r="B8" s="2">
-        <v>3553.769161</v>
+        <v>3503.012729</v>
       </c>
       <c r="C8" s="2">
-        <v>225.042297</v>
+        <v>241.661907</v>
       </c>
       <c r="D8" s="2">
-        <v>0.3292</v>
+        <v>-0.0027</v>
       </c>
       <c r="E8" s="2">
-        <v>4.575846</v>
+        <v>2.933347</v>
       </c>
       <c r="F8" s="2">
-        <v>54.6875</v>
+        <v>48.046875</v>
       </c>
       <c r="G8" s="2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H8" s="2">
-        <v>280</v>
+        <v>246</v>
       </c>
       <c r="I8" s="2">
-        <v>224</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -723,28 +732,28 @@
         <v>16</v>
       </c>
       <c r="B9" s="2">
-        <v>3495.54485</v>
+        <v>3431.130834</v>
       </c>
       <c r="C9" s="2">
-        <v>259.792065</v>
+        <v>232.349184</v>
       </c>
       <c r="D9" s="2">
-        <v>0.186169</v>
+        <v>0.583655</v>
       </c>
       <c r="E9" s="2">
-        <v>4.450577</v>
+        <v>4.395775</v>
       </c>
       <c r="F9" s="2">
-        <v>52.34375</v>
+        <v>54.296875</v>
       </c>
       <c r="G9" s="2">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="H9" s="2">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="I9" s="2">
-        <v>236</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -752,28 +761,28 @@
         <v>17</v>
       </c>
       <c r="B10" s="2">
-        <v>3491.262533</v>
+        <v>3514.997317</v>
       </c>
       <c r="C10" s="2">
-        <v>239.49018</v>
+        <v>228.282411</v>
       </c>
       <c r="D10" s="2">
-        <v>0.782591</v>
+        <v>0.136162</v>
       </c>
       <c r="E10" s="2">
-        <v>6.978138</v>
+        <v>4.701634</v>
       </c>
       <c r="F10" s="2">
-        <v>50.390625</v>
+        <v>53.125</v>
       </c>
       <c r="G10" s="2">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H10" s="2">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="I10" s="2">
-        <v>244</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -781,28 +790,28 @@
         <v>18</v>
       </c>
       <c r="B11" s="2">
-        <v>3537.655219</v>
+        <v>3489.605802</v>
       </c>
       <c r="C11" s="2">
-        <v>240.669422</v>
+        <v>234.887805</v>
       </c>
       <c r="D11" s="2">
-        <v>0.166551</v>
+        <v>0.577572</v>
       </c>
       <c r="E11" s="2">
-        <v>5.169733</v>
+        <v>5.479533</v>
       </c>
       <c r="F11" s="2">
-        <v>53.515625</v>
+        <v>52.34375</v>
       </c>
       <c r="G11" s="2">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H11" s="2">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="I11" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -810,28 +819,28 @@
         <v>19</v>
       </c>
       <c r="B12" s="2">
-        <v>3496.926989</v>
+        <v>3482.777324</v>
       </c>
       <c r="C12" s="2">
-        <v>259.248557</v>
+        <v>232.439478</v>
       </c>
       <c r="D12" s="2">
-        <v>0.736991</v>
+        <v>0.152886</v>
       </c>
       <c r="E12" s="2">
-        <v>7.105505</v>
+        <v>4.346383</v>
       </c>
       <c r="F12" s="2">
-        <v>47.65625</v>
+        <v>52.734375</v>
       </c>
       <c r="G12" s="2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H12" s="2">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="I12" s="2">
-        <v>267</v>
+        <v>231</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -839,28 +848,28 @@
         <v>20</v>
       </c>
       <c r="B13" s="2">
-        <v>3487.190674</v>
+        <v>3469.834646</v>
       </c>
       <c r="C13" s="2">
-        <v>246.893319</v>
+        <v>255.414832</v>
       </c>
       <c r="D13" s="2">
-        <v>-0.270773</v>
+        <v>0.27883</v>
       </c>
       <c r="E13" s="2">
-        <v>4.138496</v>
+        <v>4.650076</v>
       </c>
       <c r="F13" s="2">
-        <v>48.4375</v>
+        <v>48.828125</v>
       </c>
       <c r="G13" s="2">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H13" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="I13" s="2">
-        <v>256</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -868,28 +877,28 @@
         <v>21</v>
       </c>
       <c r="B14" s="2">
-        <v>3546.578125</v>
+        <v>3484.983534</v>
       </c>
       <c r="C14" s="2">
-        <v>237.620761</v>
+        <v>248.273535</v>
       </c>
       <c r="D14" s="2">
-        <v>0.218937</v>
+        <v>0.035614</v>
       </c>
       <c r="E14" s="2">
-        <v>4.38328</v>
+        <v>2.849169</v>
       </c>
       <c r="F14" s="2">
-        <v>53.515625</v>
+        <v>46.875</v>
       </c>
       <c r="G14" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H14" s="2">
-        <v>274</v>
+        <v>240</v>
       </c>
       <c r="I14" s="2">
-        <v>232</v>
+        <v>263</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -897,28 +906,28 @@
         <v>22</v>
       </c>
       <c r="B15" s="2">
-        <v>3447.809897</v>
+        <v>3455.826781</v>
       </c>
       <c r="C15" s="2">
-        <v>259.159873</v>
+        <v>219.778896</v>
       </c>
       <c r="D15" s="2">
-        <v>-0.135826</v>
+        <v>-0.13634</v>
       </c>
       <c r="E15" s="2">
-        <v>2.387538</v>
+        <v>5.223131</v>
       </c>
       <c r="F15" s="2">
-        <v>45.703125</v>
+        <v>54.296875</v>
       </c>
       <c r="G15" s="2">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H15" s="2">
-        <v>234</v>
+        <v>278</v>
       </c>
       <c r="I15" s="2">
-        <v>271</v>
+        <v>223</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -926,28 +935,28 @@
         <v>23</v>
       </c>
       <c r="B16" s="2">
-        <v>3498.931737</v>
+        <v>3530.416387</v>
       </c>
       <c r="C16" s="2">
-        <v>236.961454</v>
+        <v>230.878644</v>
       </c>
       <c r="D16" s="2">
-        <v>-0.307831</v>
+        <v>0.159849</v>
       </c>
       <c r="E16" s="2">
-        <v>3.619353</v>
+        <v>3.992783</v>
       </c>
       <c r="F16" s="2">
-        <v>53.90625</v>
+        <v>51.5625</v>
       </c>
       <c r="G16" s="2">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H16" s="2">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="I16" s="2">
-        <v>229</v>
+        <v>236</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -955,28 +964,28 @@
         <v>24</v>
       </c>
       <c r="B17" s="2">
-        <v>3580.734342</v>
+        <v>3499.070024</v>
       </c>
       <c r="C17" s="2">
-        <v>236.350283</v>
+        <v>221.343588</v>
       </c>
       <c r="D17" s="2">
-        <v>-0.340606</v>
+        <v>-0.422883</v>
       </c>
       <c r="E17" s="2">
-        <v>3.211909</v>
+        <v>2.309825</v>
       </c>
       <c r="F17" s="2">
-        <v>53.125</v>
+        <v>54.6875</v>
       </c>
       <c r="G17" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H17" s="2">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="I17" s="2">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -984,28 +993,28 @@
         <v>25</v>
       </c>
       <c r="B18" s="2">
-        <v>3506.750654</v>
+        <v>3470.591046</v>
       </c>
       <c r="C18" s="2">
-        <v>240.956893</v>
+        <v>249.0827</v>
       </c>
       <c r="D18" s="2">
-        <v>0.152066</v>
+        <v>0.655085</v>
       </c>
       <c r="E18" s="2">
-        <v>3.772755</v>
+        <v>5.414664</v>
       </c>
       <c r="F18" s="2">
-        <v>46.875</v>
+        <v>49.21875</v>
       </c>
       <c r="G18" s="2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H18" s="2">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="I18" s="2">
-        <v>263</v>
+        <v>248</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1013,28 +1022,28 @@
         <v>26</v>
       </c>
       <c r="B19" s="2">
-        <v>3493.886764</v>
+        <v>3458.158803</v>
       </c>
       <c r="C19" s="2">
-        <v>244.03641</v>
+        <v>247.665766</v>
       </c>
       <c r="D19" s="2">
-        <v>-0.061006</v>
+        <v>-0.146489</v>
       </c>
       <c r="E19" s="2">
-        <v>3.523311</v>
+        <v>3.072862</v>
       </c>
       <c r="F19" s="2">
-        <v>51.5625</v>
+        <v>46.875</v>
       </c>
       <c r="G19" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H19" s="2">
-        <v>264</v>
+        <v>240</v>
       </c>
       <c r="I19" s="2">
-        <v>238</v>
+        <v>263</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1042,28 +1051,28 @@
         <v>27</v>
       </c>
       <c r="B20" s="2">
-        <v>3534.382599</v>
+        <v>3544.276254</v>
       </c>
       <c r="C20" s="2">
-        <v>229.372475</v>
+        <v>228.45318</v>
       </c>
       <c r="D20" s="2">
-        <v>-0.221292</v>
+        <v>0.238154</v>
       </c>
       <c r="E20" s="2">
-        <v>3.821106</v>
+        <v>5.708945</v>
       </c>
       <c r="F20" s="2">
-        <v>53.515625</v>
+        <v>51.5625</v>
       </c>
       <c r="G20" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H20" s="2">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="I20" s="2">
-        <v>229</v>
+        <v>240</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1071,28 +1080,28 @@
         <v>28</v>
       </c>
       <c r="B21" s="2">
-        <v>3510.837721</v>
+        <v>3484.156096</v>
       </c>
       <c r="C21" s="2">
-        <v>225.909828</v>
+        <v>248.48814</v>
       </c>
       <c r="D21" s="2">
-        <v>0.7569129999999999</v>
+        <v>-0.000191</v>
       </c>
       <c r="E21" s="2">
-        <v>5.573047</v>
+        <v>3.276276</v>
       </c>
       <c r="F21" s="2">
-        <v>50</v>
+        <v>54.6875</v>
       </c>
       <c r="G21" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H21" s="2">
-        <v>256</v>
+        <v>280</v>
       </c>
       <c r="I21" s="2">
-        <v>249</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1100,28 +1109,28 @@
         <v>29</v>
       </c>
       <c r="B22" s="2">
-        <v>3535.774956</v>
+        <v>3497.618195</v>
       </c>
       <c r="C22" s="2">
-        <v>239.438487</v>
+        <v>220.269765</v>
       </c>
       <c r="D22" s="2">
-        <v>0.172869</v>
+        <v>0.351229</v>
       </c>
       <c r="E22" s="2">
-        <v>4.025521</v>
+        <v>5.502011</v>
       </c>
       <c r="F22" s="2">
-        <v>54.296875</v>
+        <v>52.34375</v>
       </c>
       <c r="G22" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H22" s="2">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="I22" s="2">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1129,28 +1138,28 @@
         <v>30</v>
       </c>
       <c r="B23" s="2">
-        <v>3438.575063</v>
+        <v>3539.048435</v>
       </c>
       <c r="C23" s="2">
-        <v>260.888528</v>
+        <v>236.221391</v>
       </c>
       <c r="D23" s="2">
-        <v>0.182319</v>
+        <v>-0.023666</v>
       </c>
       <c r="E23" s="2">
-        <v>4.939408</v>
+        <v>2.982932</v>
       </c>
       <c r="F23" s="2">
-        <v>46.875</v>
+        <v>54.6875</v>
       </c>
       <c r="G23" s="2">
         <v>7</v>
       </c>
       <c r="H23" s="2">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="I23" s="2">
-        <v>265</v>
+        <v>225</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1158,28 +1167,28 @@
         <v>31</v>
       </c>
       <c r="B24" s="2">
-        <v>3549.718645</v>
+        <v>3460.83506</v>
       </c>
       <c r="C24" s="2">
-        <v>226.938615</v>
+        <v>237.252454</v>
       </c>
       <c r="D24" s="2">
-        <v>0.119054</v>
+        <v>0.524092</v>
       </c>
       <c r="E24" s="2">
-        <v>3.588618</v>
+        <v>6.613269</v>
       </c>
       <c r="F24" s="2">
-        <v>54.6875</v>
+        <v>50.78125</v>
       </c>
       <c r="G24" s="2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H24" s="2">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="I24" s="2">
-        <v>223</v>
+        <v>240</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1187,28 +1196,28 @@
         <v>32</v>
       </c>
       <c r="B25" s="2">
-        <v>3459.325206</v>
+        <v>3456.992661</v>
       </c>
       <c r="C25" s="2">
-        <v>257.000346</v>
+        <v>249.17126</v>
       </c>
       <c r="D25" s="2">
-        <v>-0.047646</v>
+        <v>0.305884</v>
       </c>
       <c r="E25" s="2">
-        <v>3.774854</v>
+        <v>5.452449</v>
       </c>
       <c r="F25" s="2">
-        <v>51.171875</v>
+        <v>50.78125</v>
       </c>
       <c r="G25" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H25" s="2">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="I25" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1216,28 +1225,115 @@
         <v>33</v>
       </c>
       <c r="B26" s="2">
-        <v>3456.992661</v>
+        <v>3499.346609</v>
       </c>
       <c r="C26" s="2">
-        <v>245.690077</v>
+        <v>234.436882</v>
       </c>
       <c r="D26" s="2">
-        <v>0.36431</v>
+        <v>0.318476</v>
       </c>
       <c r="E26" s="2">
-        <v>4.138811</v>
+        <v>5.399811</v>
       </c>
       <c r="F26" s="2">
-        <v>49.609375</v>
+        <v>53.90625</v>
       </c>
       <c r="G26" s="2">
+        <v>13</v>
+      </c>
+      <c r="H26" s="2">
+        <v>276</v>
+      </c>
+      <c r="I26" s="2">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="2">
+        <v>3473.617744</v>
+      </c>
+      <c r="C27" s="2">
+        <v>234.117044</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1.364223</v>
+      </c>
+      <c r="E27" s="2">
+        <v>8.262285</v>
+      </c>
+      <c r="F27" s="2">
+        <v>54.6875</v>
+      </c>
+      <c r="G27" s="2">
+        <v>13</v>
+      </c>
+      <c r="H27" s="2">
+        <v>280</v>
+      </c>
+      <c r="I27" s="2">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="2">
+        <v>3449.042456</v>
+      </c>
+      <c r="C28" s="2">
+        <v>248.919302</v>
+      </c>
+      <c r="D28" s="2">
+        <v>-0.343943</v>
+      </c>
+      <c r="E28" s="2">
+        <v>2.277313</v>
+      </c>
+      <c r="F28" s="2">
+        <v>49.21875</v>
+      </c>
+      <c r="G28" s="2">
         <v>10</v>
       </c>
-      <c r="H26" s="2">
-        <v>254</v>
-      </c>
-      <c r="I26" s="2">
-        <v>248</v>
+      <c r="H28" s="2">
+        <v>252</v>
+      </c>
+      <c r="I28" s="2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="2">
+        <v>3510.837721</v>
+      </c>
+      <c r="C29" s="2">
+        <v>234.843471</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0.213731</v>
+      </c>
+      <c r="E29" s="2">
+        <v>6.076105</v>
+      </c>
+      <c r="F29" s="2">
+        <v>51.5625</v>
+      </c>
+      <c r="G29" s="2">
+        <v>12</v>
+      </c>
+      <c r="H29" s="2">
+        <v>264</v>
+      </c>
+      <c r="I29" s="2">
+        <v>236</v>
       </c>
     </row>
   </sheetData>

--- a/num_atomos/crn512.xlsx
+++ b/num_atomos/crn512.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>CRN</t>
   </si>
@@ -125,6 +125,12 @@
   </si>
   <si>
     <t>crn_00027</t>
+  </si>
+  <si>
+    <t>crn_00028</t>
+  </si>
+  <si>
+    <t>crn_00029</t>
   </si>
 </sst>
 </file>
@@ -489,7 +495,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1336,6 +1342,64 @@
         <v>236</v>
       </c>
     </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="2">
+        <v>3473.204909</v>
+      </c>
+      <c r="C30" s="2">
+        <v>264.312233</v>
+      </c>
+      <c r="D30" s="2">
+        <v>-0.06714299999999999</v>
+      </c>
+      <c r="E30" s="2">
+        <v>2.29813</v>
+      </c>
+      <c r="F30" s="2">
+        <v>53.125</v>
+      </c>
+      <c r="G30" s="2">
+        <v>6</v>
+      </c>
+      <c r="H30" s="2">
+        <v>272</v>
+      </c>
+      <c r="I30" s="2">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="2">
+        <v>3541.138945</v>
+      </c>
+      <c r="C31" s="2">
+        <v>246.031259</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0.304077</v>
+      </c>
+      <c r="E31" s="2">
+        <v>4.054082</v>
+      </c>
+      <c r="F31" s="2">
+        <v>53.125</v>
+      </c>
+      <c r="G31" s="2">
+        <v>12</v>
+      </c>
+      <c r="H31" s="2">
+        <v>272</v>
+      </c>
+      <c r="I31" s="2">
+        <v>228</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
